--- a/Spreadsheets/Cofactors/Plastoquinone.xlsx
+++ b/Spreadsheets/Cofactors/Plastoquinone.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/PlantSEED_Repo/Spreadsheets/Cofactors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Roles" localSheetId="0">Sheet1!$A$1:$M$18</definedName>
+    <definedName name="Roles" localSheetId="0">Sheet1!$D$1:$Q$15</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Roles.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Plastoquinone_biosynthesis_in_plants:Roles.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Plastoquinone_biosynthesis_in_plants:Roles.tsv">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
   <si>
     <t>Role</t>
   </si>
@@ -194,16 +202,281 @@
   </si>
   <si>
     <t>AT5G53970</t>
+  </si>
+  <si>
+    <t>Consensus location</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated and targetP plastid; Predotar: plastid; WolfPsort: chlo: 12, vacu: 1; Has signal peptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:14508009 </t>
+  </si>
+  <si>
+    <t>c, m</t>
+  </si>
+  <si>
+    <t>PMID:10198110</t>
+  </si>
+  <si>
+    <t>c, d</t>
+  </si>
+  <si>
+    <t>PMID:7894512</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBAcon: peroxisome; PPDB: targetP cytoplasm; Predotar: cytoplasmic; Signal 3-L no signal peptide. Cytosolic: experimental data [PMID:7894512] </t>
+  </si>
+  <si>
+    <t>PMID:20883697; also Glutamate/aspartate-prephenate aminotransferase activity</t>
+  </si>
+  <si>
+    <t>SUBA: MS multiple results plastid; PPDB: plastid supported by in house experiments</t>
+  </si>
+  <si>
+    <t>Citrate cycle</t>
+  </si>
+  <si>
+    <t>PMID:9535706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartate aminotransferase (EC 2.6.1.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: GFP cytosolic (reference refers to peroxisome proteome though, so it is inconsistent; MS multiple data mitochondrial; Experimental data mitochondrial [PMID:7894512]; Predotar mitochondrial; Signal 3-L no signal peptide </t>
+  </si>
+  <si>
+    <t>PMID:7766905</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS multiple data plastid; PPDB: platid supported by in house experiments. Plastid [PMID:7766905]</t>
+  </si>
+  <si>
+    <t>d, x</t>
+  </si>
+  <si>
+    <t>SUBA: SUBAcon cytosol; GFP peroxisome MS several data to different compartments so inconclusive; Experimental data plastidial [PMID:7894512] ; Predotar elswhere and Signal 3_L no signal peptide. Isolated chloroplasts have been proved to synthesize asp from oxaloacetate though [PMID:16658147 ] which supports presence of enzyme in these organelles. Located in peroxisome [PMID:12154131].</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>PMID:21676488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: SUBAcon cytosol, GFP unclear; MS several different compartments; PPDB: curated cytosolic; Experimental data cytosolic [PMID:7894512] </t>
+  </si>
+  <si>
+    <t>SUBA: MS 2 data plastid; PPDB: targetP, experimental evidence, proteomes plastid ; Predotar and WolfPsort plastid; No signal peptide</t>
+  </si>
+  <si>
+    <t>No evidence foe enzymatic activity</t>
+  </si>
+  <si>
+    <t>Putative; PLP; Glutamate needed</t>
+  </si>
+  <si>
+    <t>SUBAcon: plastid; PPDB: targetP cytoplasm; Predotar: elsewhere. Wolfpsort:chlo: 5.5, chlo_mito: 5.5, mito: 4.5,and no signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:21188077</t>
+  </si>
+  <si>
+    <t>SUBA: MS one data cytosol; PPDB: targetP cytoplasm; Predotar: elsewhere; WolfPsort: chlo: 3, cyto: 3; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:22540282</t>
+  </si>
+  <si>
+    <t>SUBAcon: cytosol; PPDB targetP cytoplasm; Predotar and WolfPsort cytosol; No signal peptide.</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: targetP plastid; Predotar: plastid; WolfPsort: chlo: 6, plas: 6, mito: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:16989822</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, in house experiments and targetP plastid; Predotar: elsewhere and plastid; WolfPsort: chlo: 8, cyto: 4, nucl: 2; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:23913686</t>
+  </si>
+  <si>
+    <t>SUBA: GFP endoplasmic reticulum; PPDB: curated plastid and mito; targetP: plastid; Predotar and WolfPsort: plastid; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:15653808</t>
+  </si>
+  <si>
+    <t>SPS1</t>
+  </si>
+  <si>
+    <t>SUBA: GFP mito and plastid; PPDB: curated mito and plastid; Predotar: mito and elsewhere; WolfPsort: mito: 10.5, chlo_mito: 7.5, chlo: 3.5; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:21950843</t>
+  </si>
+  <si>
+    <t>EC 2.5.1.117</t>
+  </si>
+  <si>
+    <t>EC 2.1.1.295</t>
+  </si>
+  <si>
+    <t>Plastoquinone can be synthesized following a short or a long pathway. The long pathway starts in cytosol where tyrosine is processed to homogentisate.</t>
+  </si>
+  <si>
+    <t>Homogentisate has then  to be transported into the plastid. Here it is used together with  all-trans-nonaprenyl diphosphate (which has been synthesized inside the plastid) to make first 2-methyl-6-all-trans-nonaprenyl-1,4-benzoquinol, and finally plastoquinol-9.</t>
+  </si>
+  <si>
+    <t>In the short pathway, 4-hydroxyphenylpyruvate undergoes an oxidative decarboxylation in the cytosol, and the resulting product, all-trans-nonaprenyl diphosphate has to be transported into the plastid, where it is processed as described above into plastoquinol-9</t>
+  </si>
+  <si>
+    <t>CONSIDERATIONS FOR TRANSPORTERS:</t>
+  </si>
+  <si>
+    <t>Homogenistate</t>
+  </si>
+  <si>
+    <t>If 4-hydroxyphenylpyruvate is produced in mitochondria, peroxisome or plastid it has to be transported out of any of these organelles to be processed by the cytosolic 4-hydroxyphenylpyruvate dioxygenase (EC 1.13.11.27)</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>4-hydroxyphenylpyruvate can also be made by aspartate aminotransferase (EC 2.6.1.1), from oxaloacetate and L-tyrosine. This enzyme is located inside mitochondria, plastids and peroxisomes as well as cytosol. In any of these cases pyridoxal phosphate is needed inside these organelles for the transamination to take place.</t>
+  </si>
+  <si>
+    <t>The following compounds have to be inside plastid:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyridoxal phosphate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histidinol-phosphate aminotransferase (EC 2.6.1.9) may also produce 4-hydroxyphenylpyruvate from tyrosine, and this enzyme can be found inside plastids. It also requires pyridoxal phosphate, apart from the substrates: 3-(imidazol-4-yl)-2-oxopropyl phosphate  and L-tyrosine </t>
+  </si>
+  <si>
+    <t>Ability to transport  4-hydroxyphenylpyruvate out of plastids, mitochondria and peroxisome</t>
+  </si>
+  <si>
+    <t>Inside mitochondria:</t>
+  </si>
+  <si>
+    <t>Inside peroxisomes:</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-trans-nonaprenyl diphosphate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxaloacetate and L-tyrosine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-(Imidazol-4-yl)-2-oxopropyl phosphate  and L-tyrosine </t>
+  </si>
+  <si>
+    <t>Oxaloacetate and L-tyrosine and pyridoxal phosphate</t>
+  </si>
+  <si>
+    <t>Glutamate is needed in cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: MS mito, 1 result; PPDB: curated cytosol and mito, targetP predicted mito; Predotar: elsewhere; WolfPsort: cysk: 13; No signal peptide </t>
+  </si>
+  <si>
+    <t>SUBA: MS 1 data plastid; PPDB: targetP, experimental evidence, proteomes plastid; Predotar and WolfPsort plastid; No signal peptide</t>
+  </si>
+  <si>
+    <t>r, m, d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -230,14 +503,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,449 +860,961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="4" max="4" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="N14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="O15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
-        <v>19</v>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="D22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="D23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="D24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="D25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="D27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="D28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="D30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="D31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="D33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="D36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D37" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="D38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="D43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>